--- a/PPG/Planejamento estratégico.xlsx
+++ b/PPG/Planejamento estratégico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8024FA39-BD13-CC48-9D2A-3726E58B493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996C5EED-41AE-1145-85ED-2A85456E9A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="Programa (PPG)" sheetId="16" r:id="rId1"/>
@@ -40,17 +40,17 @@
     <t>Documento</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1b0pO2PTjOviC91wbLkRmDwSNdjn_b9ia</t>
+    <t>https://drive.google.com/file/d/1Rg_PZij7pJBO0lZvk59iBlcoyDxUVQMv</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Rg_PZij7pJBO0lZvk59iBlcoyDxUVQMv</t>
+    <t>https://drive.google.com/file/d/1xKdBXZkCPXE-eH8UQihhcSXEIMxDaXqI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,14 +70,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0066CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,11 +96,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -426,6 +417,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
   <dimension ref="A1:A2"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BCD0CB96-D421-9249-8F7E-2B2E85E0F085}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,42 +463,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BCD0CB96-D421-9249-8F7E-2B2E85E0F085}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{68F3EE9A-0B44-D642-B19B-43FC92A3CD53}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/PPG/Planejamento estratégico.xlsx
+++ b/PPG/Planejamento estratégico.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996C5EED-41AE-1145-85ED-2A85456E9A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD39176-307F-FF41-BDC5-E17654BDB18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Programa (PPG)" sheetId="16" r:id="rId1"/>
-    <sheet name="PDI (IES)" sheetId="15" r:id="rId2"/>
+    <sheet name="PDI (IES)" sheetId="15" r:id="rId1"/>
+    <sheet name="Programa (PPG)" sheetId="16" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,10 +40,10 @@
     <t>Documento</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Rg_PZij7pJBO0lZvk59iBlcoyDxUVQMv</t>
+    <t>https://drive.google.com/file/d/1xKdBXZkCPXE-eH8UQihhcSXEIMxDaXqI</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1xKdBXZkCPXE-eH8UQihhcSXEIMxDaXqI</t>
+    <t>https://drive.google.com/file/d/12yWcrjuyTNzIv_avHqcoMPQeqSgP-1e4</t>
   </si>
 </sst>
 </file>
@@ -96,10 +96,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -414,8 +415,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,17 +435,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BCD0CB96-D421-9249-8F7E-2B2E85E0F085}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1EED352C-0D90-AE46-BD17-AA2FF896E559}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,19 +466,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{68F3EE9A-0B44-D642-B19B-43FC92A3CD53}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3D3B1F8F-43FA-6148-AD77-86336AA9F728}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Planejamento estratégico.xlsx
+++ b/PPG/Planejamento estratégico.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD39176-307F-FF41-BDC5-E17654BDB18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F707F45B-80DD-E54C-AD99-602B4A698305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="PDI (IES)" sheetId="15" r:id="rId1"/>
-    <sheet name="Programa (PPG)" sheetId="16" r:id="rId2"/>
+    <sheet name="Planejamento 2025-2028" sheetId="16" r:id="rId1"/>
+    <sheet name="Planejamento 2021-2024" sheetId="17" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,10 +40,10 @@
     <t>Documento</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1xKdBXZkCPXE-eH8UQihhcSXEIMxDaXqI</t>
+    <t>https://drive.google.com/file/d/12yWcrjuyTNzIv_avHqcoMPQeqSgP-1e4</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/12yWcrjuyTNzIv_avHqcoMPQeqSgP-1e4</t>
+    <t>https://drive.google.com/file/d/1OGkDhZnSPLfy2IqgtUY6lWY_AsycwI66</t>
   </si>
 </sst>
 </file>
@@ -96,10 +96,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -120,9 +119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +159,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -266,7 +265,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -408,15 +407,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7681EF45-0803-E947-B5BF-353F29B5B9C9}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E24B37A5-98BB-FC49-946B-BFEFA0EC2C18}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A94E56-8671-1A49-92E6-370AAC42FDFE}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,44 +463,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{1EED352C-0D90-AE46-BD17-AA2FF896E559}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{3D3B1F8F-43FA-6148-AD77-86336AA9F728}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4D921CEB-7BC2-6B49-860A-8D1D5A98F741}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Planejamento estratégico.xlsx
+++ b/PPG/Planejamento estratégico.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F707F45B-80DD-E54C-AD99-602B4A698305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A457B5-B62F-444C-A383-2D19C72E18D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planejamento 2025-2028" sheetId="16" r:id="rId1"/>
-    <sheet name="Planejamento 2021-2024" sheetId="17" r:id="rId2"/>
+    <sheet name="2025-2028" sheetId="16" r:id="rId1"/>
+    <sheet name="2021-2024" sheetId="17" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Documento</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1OGkDhZnSPLfy2IqgtUY6lWY_AsycwI66</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Planejamento Estratégico 2025-2028.pdf</t>
+  </si>
+  <si>
+    <t>Planejamento Estratégico 2021-2024.pdf</t>
+  </si>
+  <si>
+    <t>Abrir</t>
   </si>
 </sst>
 </file>
@@ -415,28 +427,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE87C2-EAB2-D54E-B119-6FC73A18A772}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2025</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E24B37A5-98BB-FC49-946B-BFEFA0EC2C18}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E24B37A5-98BB-FC49-946B-BFEFA0EC2C18}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -444,28 +470,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A94E56-8671-1A49-92E6-370AAC42FDFE}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4D921CEB-7BC2-6B49-860A-8D1D5A98F741}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4D921CEB-7BC2-6B49-860A-8D1D5A98F741}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
